--- a/my_contract/tools/users.xlsx
+++ b/my_contract/tools/users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\furong.zhou\Desktop\python_pj\my_contract\my_contract\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoufurong/PycharmProjects/my_contract/my_contract/tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE734D8B-E8A8-4031-869A-9873B415EB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8884504D-FC90-1C4F-8AF0-DBED6D327E29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="23580" windowHeight="12750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="E3用户列表" sheetId="13" r:id="rId1"/>
@@ -18,23 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">E3用户列表!$A$1:$A$430</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="432">
   <si>
     <t>用户主体名称</t>
   </si>
@@ -1717,6 +1706,10 @@
   </si>
   <si>
     <t>用户主体名称2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户主体名称3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1727,7 +1720,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-409]mmmmm\-yy;@"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1937,6 +1930,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2898,3484 +2892,4781 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3AAFB6-CC3D-49D2-B578-A3F208B9776D}">
-  <dimension ref="A1:B437"/>
+  <dimension ref="A1:C437"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="34" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="34" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="19">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="17" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="24" t="s">
         <v>55</v>
       </c>
       <c r="B56" s="24" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56" s="24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C57" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C59" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C60" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C61" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C62" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C63" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C64" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C65" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C66" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C67" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C68" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C69" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C70" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C71" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C72" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="9" t="s">
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C73" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C74" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C75" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C76" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="5" t="s">
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C77" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C78" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C79" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C80" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C81" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C82" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C83" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C84" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C85" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C86" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C87" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C88" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="9" t="s">
         <v>88</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C89" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C90" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C91" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" s="17" t="s">
         <v>91</v>
       </c>
       <c r="B92" s="17" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C92" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C93" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C94" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C95" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C96" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C97" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C98" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C99" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C100" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C101" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C102" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C103" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" s="9" t="s">
         <v>103</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C104" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C105" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="16">
       <c r="A106" s="21" t="s">
         <v>105</v>
       </c>
       <c r="B106" s="21" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C106" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="16">
       <c r="A107" s="21" t="s">
         <v>106</v>
       </c>
       <c r="B107" s="21" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C107" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="16">
       <c r="A108" s="21" t="s">
         <v>107</v>
       </c>
       <c r="B108" s="21" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C108" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C109" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C110" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C111" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C112" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" s="18" t="s">
         <v>112</v>
       </c>
       <c r="B113" s="18" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C113" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C114" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C115" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C116" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C117" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C118" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C119" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C120" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C121" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B122" s="9" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C122" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C123" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C124" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" s="14" customFormat="1">
       <c r="A125" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C125" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C126" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C127" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C128" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" s="3" t="s">
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C129" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C130" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C131" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" s="3" t="s">
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C132" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" s="4" t="s">
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C133" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C134" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C135" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" s="3" t="s">
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C136" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" s="3" t="s">
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C137" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C138" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" s="4" t="s">
         <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C139" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" s="4" t="s">
         <v>139</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C140" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" s="4" t="s">
         <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C141" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" s="4" t="s">
         <v>141</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C142" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" s="4" t="s">
         <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C143" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C144" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C145" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146" s="3" t="s">
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C146" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147" s="9" t="s">
         <v>146</v>
       </c>
       <c r="B147" s="9" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C147" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148" s="11" t="s">
         <v>147</v>
       </c>
       <c r="B148" s="11" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C148" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C149" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150" s="3" t="s">
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C150" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C151" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152" s="3" t="s">
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C152" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153" s="3" t="s">
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C153" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
       <c r="A154" s="3" t="s">
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C154" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
       <c r="A155" s="3" t="s">
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C155" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C156" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157" s="3" t="s">
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C157" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C158" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159" s="4" t="s">
         <v>158</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C159" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C160" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161" s="3" t="s">
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C161" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162" s="3" t="s">
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C162" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
       <c r="A163" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C163" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164" s="17" t="s">
         <v>163</v>
       </c>
       <c r="B164" s="17" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C164" s="17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
       <c r="A165" s="3" t="s">
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C165" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="14.25" customHeight="1">
       <c r="A166" s="3" t="s">
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C166" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167" s="3" t="s">
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C167" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
       <c r="A168" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C168" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
       <c r="A169" s="17" t="s">
         <v>168</v>
       </c>
       <c r="B169" s="17" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C169" s="17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" s="3" t="s">
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C170" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C171" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
       <c r="A172" s="3" t="s">
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C172" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
       <c r="A173" s="3" t="s">
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C173" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
       <c r="A174" s="17" t="s">
         <v>173</v>
       </c>
       <c r="B174" s="17" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C174" s="17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
       <c r="A175" s="3" t="s">
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C175" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
       <c r="A176" s="3" t="s">
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C176" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
       <c r="A177" s="3" t="s">
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C177" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
       <c r="A178" s="3" t="s">
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C178" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
       <c r="A179" s="17" t="s">
         <v>178</v>
       </c>
       <c r="B179" s="17" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C179" s="17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180" s="3" t="s">
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C180" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181" s="3" t="s">
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C181" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
       <c r="A182" s="3" t="s">
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C182" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
       <c r="A183" s="3" t="s">
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C183" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
       <c r="A184" s="3" t="s">
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C184" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
       <c r="A185" s="3" t="s">
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C185" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
       <c r="A186" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C186" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
       <c r="A187" s="3" t="s">
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C187" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
       <c r="A188" s="11" t="s">
         <v>187</v>
       </c>
       <c r="B188" s="11" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C188" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
       <c r="A189" s="3" t="s">
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C189" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
       <c r="A190" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C190" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
       <c r="A191" s="3" t="s">
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C191" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
       <c r="A192" s="3" t="s">
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C192" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
       <c r="A193" s="3" t="s">
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C193" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
       <c r="A194" s="3" t="s">
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C194" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
       <c r="A195" s="3" t="s">
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C195" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
       <c r="A196" s="3" t="s">
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C196" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
       <c r="A197" s="3" t="s">
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C197" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
       <c r="A198" s="9" t="s">
         <v>197</v>
       </c>
       <c r="B198" s="9" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C198" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
       <c r="A199" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C199" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
       <c r="A200" s="3" t="s">
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C200" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
       <c r="A201" s="3" t="s">
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C201" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
       <c r="A202" s="3" t="s">
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C202" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
       <c r="A203" s="10" t="s">
         <v>202</v>
       </c>
       <c r="B203" s="10" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C203" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
       <c r="A204" s="9" t="s">
         <v>203</v>
       </c>
       <c r="B204" s="9" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C204" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
       <c r="A205" s="3" t="s">
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C205" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
       <c r="A206" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C206" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
       <c r="A207" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C207" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
       <c r="A208" s="3" t="s">
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C208" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
       <c r="A209" s="3" t="s">
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C209" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
       <c r="A210" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C210" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
       <c r="A211" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C211" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
       <c r="A212" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C212" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
       <c r="A213" s="3" t="s">
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C213" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
       <c r="A214" s="3" t="s">
         <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C214" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
       <c r="A215" s="18" t="s">
         <v>214</v>
       </c>
       <c r="B215" s="18" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C215" s="18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
       <c r="A216" s="3" t="s">
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C216" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
       <c r="A217" s="3" t="s">
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C217" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
       <c r="A218" s="3" t="s">
         <v>217</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C218" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
       <c r="A219" s="3" t="s">
         <v>218</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C219" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
       <c r="A220" s="9" t="s">
         <v>219</v>
       </c>
       <c r="B220" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C220" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
       <c r="A221" s="3" t="s">
         <v>220</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C221" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" s="1" customFormat="1">
       <c r="A222" s="9" t="s">
         <v>221</v>
       </c>
       <c r="B222" s="9" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C222" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
       <c r="A223" s="3" t="s">
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C223" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
       <c r="A224" s="3" t="s">
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C224" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
       <c r="A225" s="9" t="s">
         <v>224</v>
       </c>
       <c r="B225" s="9" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C225" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
       <c r="A226" s="3" t="s">
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C226" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
       <c r="A227" s="3" t="s">
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C227" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
       <c r="A228" s="3" t="s">
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C228" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
       <c r="A229" s="3" t="s">
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C229" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
       <c r="A230" s="3" t="s">
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C230" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
       <c r="A231" s="9" t="s">
         <v>230</v>
       </c>
       <c r="B231" s="9" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C231" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
       <c r="A232" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C232" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
       <c r="A233" s="3" t="s">
         <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C233" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
       <c r="A234" s="3" t="s">
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C234" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
       <c r="A235" s="3" t="s">
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C235" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
       <c r="A236" s="9" t="s">
         <v>235</v>
       </c>
       <c r="B236" s="9" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C236" s="9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
       <c r="A237" s="3" t="s">
         <v>236</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C237" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
       <c r="A238" s="9" t="s">
         <v>237</v>
       </c>
       <c r="B238" s="9" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C238" s="9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
       <c r="A239" s="3" t="s">
         <v>238</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C239" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
       <c r="A240" s="4" t="s">
         <v>239</v>
       </c>
       <c r="B240" s="4" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C240" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
       <c r="A241" s="4" t="s">
         <v>240</v>
       </c>
       <c r="B241" s="4" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C241" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
       <c r="A242" s="3" t="s">
         <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C242" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
       <c r="A243" s="3" t="s">
         <v>242</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C243" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
       <c r="A244" s="9" t="s">
         <v>243</v>
       </c>
       <c r="B244" s="9" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C244" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
       <c r="A245" s="3" t="s">
         <v>244</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C245" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
       <c r="A246" s="9" t="s">
         <v>245</v>
       </c>
       <c r="B246" s="9" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C246" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
       <c r="A247" s="3" t="s">
         <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C247" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
       <c r="A248" s="3" t="s">
         <v>247</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C248" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
       <c r="A249" s="3" t="s">
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C249" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
       <c r="A250" s="3" t="s">
         <v>249</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C250" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
       <c r="A251" s="9" t="s">
         <v>250</v>
       </c>
       <c r="B251" s="9" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C251" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
       <c r="A252" s="3" t="s">
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C252" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
       <c r="A253" s="3" t="s">
         <v>252</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C253" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
       <c r="A254" s="3" t="s">
         <v>253</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C254" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="16">
       <c r="A255" s="6" t="s">
         <v>254</v>
       </c>
       <c r="B255" s="6" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C255" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
       <c r="A256" s="3" t="s">
         <v>255</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C256" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
       <c r="A257" s="3" t="s">
         <v>256</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C257" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
       <c r="A258" s="5" t="s">
         <v>257</v>
       </c>
       <c r="B258" s="5" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C258" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
       <c r="A259" s="3" t="s">
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C259" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
       <c r="A260" s="9" t="s">
         <v>259</v>
       </c>
       <c r="B260" s="9" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C260" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
       <c r="A261" s="3" t="s">
         <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C261" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
       <c r="A262" s="3" t="s">
         <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C262" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
       <c r="A263" s="3" t="s">
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C263" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
       <c r="A264" s="3" t="s">
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C264" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
       <c r="A265" s="3" t="s">
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C265" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
       <c r="A266" s="3" t="s">
         <v>265</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C266" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
       <c r="A267" s="3" t="s">
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C267" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
       <c r="A268" s="3" t="s">
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C268" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
       <c r="A269" s="4" t="s">
         <v>268</v>
       </c>
       <c r="B269" s="4" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C269" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
       <c r="A270" s="3" t="s">
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C270" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
       <c r="A271" s="3" t="s">
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C271" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
       <c r="A272" s="3" t="s">
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C272" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
       <c r="A273" s="3" t="s">
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C273" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
       <c r="A274" s="3" t="s">
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C274" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
       <c r="A275" s="3" t="s">
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C275" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
       <c r="A276" s="3" t="s">
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C276" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
       <c r="A277" s="3" t="s">
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C277" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
       <c r="A278" s="3" t="s">
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C278" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
       <c r="A279" s="3" t="s">
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C279" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
       <c r="A280" s="3" t="s">
         <v>279</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C280" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
       <c r="A281" s="9" t="s">
         <v>280</v>
       </c>
       <c r="B281" s="9" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C281" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
       <c r="A282" s="23" t="s">
         <v>281</v>
       </c>
       <c r="B282" s="23" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C282" s="23" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
       <c r="A283" s="3" t="s">
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C283" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
       <c r="A284" s="3" t="s">
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C284" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
       <c r="A285" s="3" t="s">
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C285" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
       <c r="A286" s="3" t="s">
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C286" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
       <c r="A287" s="3" t="s">
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C287" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
       <c r="A288" s="3" t="s">
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C288" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
       <c r="A289" s="3" t="s">
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C289" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
       <c r="A290" s="3" t="s">
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C290" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
       <c r="A291" s="3" t="s">
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C291" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
       <c r="A292" s="9" t="s">
         <v>291</v>
       </c>
       <c r="B292" s="9" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C292" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
       <c r="A293" s="3" t="s">
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C293" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
       <c r="A294" s="3" t="s">
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C294" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
       <c r="A295" s="9" t="s">
         <v>294</v>
       </c>
       <c r="B295" s="9" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C295" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
       <c r="A296" s="9" t="s">
         <v>295</v>
       </c>
       <c r="B296" s="9" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C296" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
       <c r="A297" s="9" t="s">
         <v>296</v>
       </c>
       <c r="B297" s="9" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C297" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
       <c r="A298" s="3" t="s">
         <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C298" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
       <c r="A299" s="3" t="s">
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C299" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
       <c r="A300" s="3" t="s">
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C300" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
       <c r="A301" s="4" t="s">
         <v>300</v>
       </c>
       <c r="B301" s="4" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C301" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
       <c r="A302" s="3" t="s">
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C302" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
       <c r="A303" s="3" t="s">
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C303" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
       <c r="A304" s="3" t="s">
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C304" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
       <c r="A305" s="3" t="s">
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C305" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
       <c r="A306" s="3" t="s">
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C306" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
       <c r="A307" s="3" t="s">
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C307" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
       <c r="A308" s="3" t="s">
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C308" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
       <c r="A309" s="9" t="s">
         <v>308</v>
       </c>
       <c r="B309" s="9" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C309" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
       <c r="A310" s="3" t="s">
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C310" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
       <c r="A311" s="3" t="s">
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C311" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
       <c r="A312" s="3" t="s">
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C312" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
       <c r="A313" s="3" t="s">
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C313" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
       <c r="A314" s="3" t="s">
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C314" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
       <c r="A315" s="3" t="s">
         <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C315" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
       <c r="A316" s="3" t="s">
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C316" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
       <c r="A317" s="3" t="s">
         <v>316</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C317" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
       <c r="A318" s="3" t="s">
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C318" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
       <c r="A319" s="3" t="s">
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C319" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
       <c r="A320" s="3" t="s">
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C320" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
       <c r="A321" s="3" t="s">
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C321" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
       <c r="A322" s="3" t="s">
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C322" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
       <c r="A323" s="10" t="s">
         <v>322</v>
       </c>
       <c r="B323" s="10" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C323" s="10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
       <c r="A324" s="3" t="s">
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C324" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
       <c r="A325" s="12" t="s">
         <v>324</v>
       </c>
       <c r="B325" s="12" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C325" s="12" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
       <c r="A326" s="3" t="s">
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C326" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
       <c r="A327" s="3" t="s">
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C327" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
       <c r="A328" s="3" t="s">
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C328" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
       <c r="A329" s="3" t="s">
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C329" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
       <c r="A330" s="3" t="s">
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C330" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
       <c r="A331" s="3" t="s">
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C331" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
       <c r="A332" s="3" t="s">
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C332" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
       <c r="A333" s="9" t="s">
         <v>332</v>
       </c>
       <c r="B333" s="9" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C333" s="9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
       <c r="A334" s="3" t="s">
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C334" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
       <c r="A335" s="9" t="s">
         <v>334</v>
       </c>
       <c r="B335" s="9" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C335" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
       <c r="A336" s="5" t="s">
         <v>335</v>
       </c>
       <c r="B336" s="5" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C336" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
       <c r="A337" s="9" t="s">
         <v>336</v>
       </c>
       <c r="B337" s="9" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C337" s="9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
       <c r="A338" s="9" t="s">
         <v>337</v>
       </c>
       <c r="B338" s="9" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C338" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
       <c r="A339" s="3" t="s">
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C339" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
       <c r="A340" s="3" t="s">
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C340" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
       <c r="A341" s="3" t="s">
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C341" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
       <c r="A342" s="3" t="s">
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C342" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
       <c r="A343" s="3" t="s">
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C343" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
       <c r="A344" s="3" t="s">
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C344" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
       <c r="A345" s="3" t="s">
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C345" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
       <c r="A346" s="3" t="s">
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C346" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
       <c r="A347" s="11" t="s">
         <v>346</v>
       </c>
       <c r="B347" s="11" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C347" s="11" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
       <c r="A348" s="22" t="s">
         <v>347</v>
       </c>
       <c r="B348" s="22" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C348" s="22" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
       <c r="A349" s="15" t="s">
         <v>348</v>
       </c>
       <c r="B349" s="15" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C349" s="15" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
       <c r="A350" s="15" t="s">
         <v>349</v>
       </c>
       <c r="B350" s="15" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C350" s="15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
       <c r="A351" s="19" t="s">
         <v>350</v>
       </c>
       <c r="B351" s="19" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C351" s="19" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
       <c r="A352" s="15" t="s">
         <v>351</v>
       </c>
       <c r="B352" s="15" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C352" s="15" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
       <c r="A353" s="15" t="s">
         <v>352</v>
       </c>
       <c r="B353" s="15" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C353" s="15" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
       <c r="A354" s="15" t="s">
         <v>353</v>
       </c>
       <c r="B354" s="15" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C354" s="15" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
       <c r="A355" s="15" t="s">
         <v>354</v>
       </c>
       <c r="B355" s="15" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C355" s="15" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
       <c r="A356" s="7" t="s">
         <v>355</v>
       </c>
       <c r="B356" s="7" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C356" s="7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
       <c r="A357" s="15" t="s">
         <v>356</v>
       </c>
       <c r="B357" s="15" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C357" s="15" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
       <c r="A358" s="7" t="s">
         <v>357</v>
       </c>
       <c r="B358" s="7" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C358" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
       <c r="A359" s="7" t="s">
         <v>358</v>
       </c>
       <c r="B359" s="7" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C359" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
       <c r="A360" s="7" t="s">
         <v>359</v>
       </c>
       <c r="B360" s="7" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C360" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
       <c r="A361" s="15" t="s">
         <v>360</v>
       </c>
       <c r="B361" s="15" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C361" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
       <c r="A362" s="15" t="s">
         <v>361</v>
       </c>
       <c r="B362" s="15" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C362" s="15" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
       <c r="A363" s="15" t="s">
         <v>362</v>
       </c>
       <c r="B363" s="15" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C363" s="15" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
       <c r="A364" s="15" t="s">
         <v>363</v>
       </c>
       <c r="B364" s="15" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C364" s="15" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
       <c r="A365" s="15" t="s">
         <v>364</v>
       </c>
       <c r="B365" s="15" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C365" s="15" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
       <c r="A366" s="15" t="s">
         <v>365</v>
       </c>
       <c r="B366" s="15" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C366" s="15" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
       <c r="A367" s="15" t="s">
         <v>366</v>
       </c>
       <c r="B367" s="15" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C367" s="15" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
       <c r="A368" s="15" t="s">
         <v>367</v>
       </c>
       <c r="B368" s="15" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C368" s="15" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
       <c r="A369" s="15" t="s">
         <v>368</v>
       </c>
       <c r="B369" s="15" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C369" s="15" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
       <c r="A370" s="15" t="s">
         <v>369</v>
       </c>
       <c r="B370" s="15" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C370" s="15" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
       <c r="A371" s="15" t="s">
         <v>370</v>
       </c>
       <c r="B371" s="15" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C371" s="15" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
       <c r="A372" s="7" t="s">
         <v>371</v>
       </c>
       <c r="B372" s="7" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C372" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
       <c r="A373" s="7" t="s">
         <v>372</v>
       </c>
       <c r="B373" s="7" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C373" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
       <c r="A374" s="7" t="s">
         <v>373</v>
       </c>
       <c r="B374" s="7" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C374" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
       <c r="A375" s="15" t="s">
         <v>374</v>
       </c>
       <c r="B375" s="15" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C375" s="15" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
       <c r="A376" s="15" t="s">
         <v>375</v>
       </c>
       <c r="B376" s="15" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C376" s="15" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
       <c r="A377" s="15" t="s">
         <v>376</v>
       </c>
       <c r="B377" s="15" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C377" s="15" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
       <c r="A378" s="15" t="s">
         <v>377</v>
       </c>
       <c r="B378" s="15" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C378" s="15" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
       <c r="A379" s="15" t="s">
         <v>378</v>
       </c>
       <c r="B379" s="15" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C379" s="15" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
       <c r="A380" s="15" t="s">
         <v>379</v>
       </c>
       <c r="B380" s="15" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C380" s="15" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
       <c r="A381" s="15" t="s">
         <v>380</v>
       </c>
       <c r="B381" s="15" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C381" s="15" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
       <c r="A382" s="15" t="s">
         <v>381</v>
       </c>
       <c r="B382" s="15" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C382" s="15" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
       <c r="A383" s="15" t="s">
         <v>382</v>
       </c>
       <c r="B383" s="15" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C383" s="15" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
       <c r="A384" s="15" t="s">
         <v>383</v>
       </c>
       <c r="B384" s="15" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C384" s="15" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
       <c r="A385" s="15" t="s">
         <v>384</v>
       </c>
       <c r="B385" s="15" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C385" s="15" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
       <c r="A386" s="15" t="s">
         <v>385</v>
       </c>
       <c r="B386" s="15" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C386" s="15" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
       <c r="A387" s="15" t="s">
         <v>386</v>
       </c>
       <c r="B387" s="15" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C387" s="15" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
       <c r="A388" s="15" t="s">
         <v>387</v>
       </c>
       <c r="B388" s="15" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C388" s="15" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
       <c r="A389" s="15" t="s">
         <v>388</v>
       </c>
       <c r="B389" s="15" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C389" s="15" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
       <c r="A390" s="15" t="s">
         <v>389</v>
       </c>
       <c r="B390" s="15" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C390" s="15" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
       <c r="A391" s="15" t="s">
         <v>390</v>
       </c>
       <c r="B391" s="15" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C391" s="15" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
       <c r="A392" s="15" t="s">
         <v>391</v>
       </c>
       <c r="B392" s="15" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C392" s="15" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
       <c r="A393" s="15" t="s">
         <v>392</v>
       </c>
       <c r="B393" s="15" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C393" s="15" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
       <c r="A394" s="15" t="s">
         <v>393</v>
       </c>
       <c r="B394" s="15" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C394" s="15" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
       <c r="A395" s="15" t="s">
         <v>394</v>
       </c>
       <c r="B395" s="15" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C395" s="15" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
       <c r="A396" s="15" t="s">
         <v>395</v>
       </c>
       <c r="B396" s="15" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C396" s="15" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
       <c r="A397" s="15" t="s">
         <v>396</v>
       </c>
       <c r="B397" s="15" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C397" s="15" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
       <c r="A398" s="15" t="s">
         <v>397</v>
       </c>
       <c r="B398" s="15" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C398" s="15" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
       <c r="A399" s="15" t="s">
         <v>398</v>
       </c>
       <c r="B399" s="15" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C399" s="15" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
       <c r="A400" s="15" t="s">
         <v>399</v>
       </c>
       <c r="B400" s="15" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C400" s="15" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
       <c r="A401" s="15" t="s">
         <v>400</v>
       </c>
       <c r="B401" s="15" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C401" s="15" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
       <c r="A402" s="15" t="s">
         <v>401</v>
       </c>
       <c r="B402" s="15" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C402" s="15" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
       <c r="A403" s="15" t="s">
         <v>402</v>
       </c>
       <c r="B403" s="15" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C403" s="15" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
       <c r="A404" s="15" t="s">
         <v>403</v>
       </c>
       <c r="B404" s="15" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C404" s="15" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
       <c r="A405" s="15" t="s">
         <v>404</v>
       </c>
       <c r="B405" s="15" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C405" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
       <c r="A406" s="15" t="s">
         <v>405</v>
       </c>
       <c r="B406" s="15" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C406" s="15" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
       <c r="A407" s="15" t="s">
         <v>406</v>
       </c>
       <c r="B407" s="15" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C407" s="15" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
       <c r="A408" s="15" t="s">
         <v>407</v>
       </c>
       <c r="B408" s="15" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C408" s="15" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
       <c r="A409" s="15" t="s">
         <v>408</v>
       </c>
       <c r="B409" s="15" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C409" s="15" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
       <c r="A410" s="15" t="s">
         <v>409</v>
       </c>
       <c r="B410" s="15" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C410" s="15" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
       <c r="A411" s="15" t="s">
         <v>410</v>
       </c>
       <c r="B411" s="15" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C411" s="15" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
       <c r="A412" s="15" t="s">
         <v>411</v>
       </c>
       <c r="B412" s="15" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C412" s="15" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
       <c r="A413" s="16" t="s">
         <v>412</v>
       </c>
       <c r="B413" s="16" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C413" s="16" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
       <c r="A414" s="15" t="s">
         <v>413</v>
       </c>
       <c r="B414" s="15" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C414" s="15" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
       <c r="A415" s="20" t="s">
         <v>414</v>
       </c>
       <c r="B415" s="20" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C415" s="20" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
       <c r="A416" s="15" t="s">
         <v>415</v>
       </c>
       <c r="B416" s="15" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C416" s="15" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
       <c r="A417" s="15" t="s">
         <v>416</v>
       </c>
       <c r="B417" s="15" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C417" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
       <c r="A418" s="15" t="s">
         <v>417</v>
       </c>
       <c r="B418" s="15" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C418" s="15" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
       <c r="A419" s="15" t="s">
         <v>418</v>
       </c>
       <c r="B419" s="15" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C419" s="15" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
       <c r="A420" s="15" t="s">
         <v>419</v>
       </c>
       <c r="B420" s="15" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C420" s="15" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
       <c r="A421" s="15" t="s">
         <v>420</v>
       </c>
       <c r="B421" s="15" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C421" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
       <c r="A422" s="15" t="s">
         <v>421</v>
       </c>
       <c r="B422" s="15" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C422" s="15" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
       <c r="A423" s="15" t="s">
         <v>422</v>
       </c>
       <c r="B423" s="15" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C423" s="15" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
       <c r="A424" s="15" t="s">
         <v>423</v>
       </c>
       <c r="B424" s="15" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C424" s="15" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
       <c r="A425" s="15" t="s">
         <v>424</v>
       </c>
       <c r="B425" s="15" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C425" s="15" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
       <c r="A426" s="15" t="s">
         <v>425</v>
       </c>
       <c r="B426" s="15" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C426" s="15" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
       <c r="A427" s="15" t="s">
         <v>426</v>
       </c>
       <c r="B427" s="15" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C427" s="15" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
       <c r="A428" s="15" t="s">
         <v>427</v>
       </c>
       <c r="B428" s="15" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C428" s="15" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
       <c r="A429" s="15" t="s">
         <v>428</v>
       </c>
       <c r="B429" s="15" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C429" s="15" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
       <c r="A430" s="15" t="s">
         <v>429</v>
       </c>
       <c r="B430" s="15" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C430" s="15" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
       <c r="A431" s="13"/>
       <c r="B431" s="13"/>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C431" s="13"/>
+    </row>
+    <row r="432" spans="1:3">
       <c r="A432" s="13"/>
       <c r="B432" s="13"/>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C432" s="13"/>
+    </row>
+    <row r="433" spans="1:3">
       <c r="A433" s="13"/>
       <c r="B433" s="13"/>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C433" s="13"/>
+    </row>
+    <row r="434" spans="1:3">
       <c r="A434" s="13"/>
       <c r="B434" s="13"/>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C434" s="13"/>
+    </row>
+    <row r="435" spans="1:3">
       <c r="A435" s="13"/>
       <c r="B435" s="13"/>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C435" s="13"/>
+    </row>
+    <row r="436" spans="1:3">
       <c r="A436" s="13"/>
       <c r="B436" s="13"/>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C436" s="13"/>
+    </row>
+    <row r="437" spans="1:3">
       <c r="A437" s="13"/>
       <c r="B437" s="13"/>
+      <c r="C437" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A430" xr:uid="{8E3AAFB6-CC3D-49D2-B578-A3F208B9776D}"/>
@@ -7161,6 +8452,396 @@
     <hyperlink ref="B56" r:id="rId778" xr:uid="{5C2728E5-1632-4B8A-A553-55932D4FF275}"/>
     <hyperlink ref="B426" r:id="rId779" xr:uid="{B6A2AA15-3159-44CD-91D9-092EE08BE343}"/>
     <hyperlink ref="B427" r:id="rId780" xr:uid="{2E96561A-9DA6-4464-8FEB-56D3B2A54EBC}"/>
+    <hyperlink ref="C380" r:id="rId781" xr:uid="{262F6539-0D17-7B4A-AA00-11517A34C004}"/>
+    <hyperlink ref="C323" r:id="rId782" xr:uid="{EB8EA530-795E-1745-81E6-104187A847D5}"/>
+    <hyperlink ref="C304" r:id="rId783" xr:uid="{2CE6A2DF-A2D2-B443-9ED9-145A275355FD}"/>
+    <hyperlink ref="C212" r:id="rId784" xr:uid="{89B77BAB-0627-A84C-B1B0-BC28B93675F2}"/>
+    <hyperlink ref="C409" r:id="rId785" xr:uid="{9595CD10-57D8-7940-913F-7184DD0B4C2E}"/>
+    <hyperlink ref="C351" r:id="rId786" xr:uid="{F2B0A918-6AFF-7F4E-8C3E-1C454B89167B}"/>
+    <hyperlink ref="C258" r:id="rId787" xr:uid="{EC97D1EE-44E9-C94F-B001-4B7A85531050}"/>
+    <hyperlink ref="C6" r:id="rId788" xr:uid="{B46559A3-BBE8-9D49-BCFF-D59C1497E8E5}"/>
+    <hyperlink ref="C336" r:id="rId789" xr:uid="{6C965914-6076-C249-981F-7FDA717842E7}"/>
+    <hyperlink ref="C255" r:id="rId790" xr:uid="{FB697446-2243-5B43-B556-F2015B685374}"/>
+    <hyperlink ref="C184" r:id="rId791" xr:uid="{512F77B3-C158-6C4E-B0DE-F1C4B8C9C304}"/>
+    <hyperlink ref="C171" r:id="rId792" xr:uid="{DD5776B3-3AEC-8348-A97A-DD676E2F849D}"/>
+    <hyperlink ref="C393" r:id="rId793" xr:uid="{AFA78E5A-9D67-AE40-B298-6002D3655670}"/>
+    <hyperlink ref="C153" r:id="rId794" xr:uid="{D6FFB919-2EE2-6446-BDBB-6E931C8D3FB9}"/>
+    <hyperlink ref="C389" r:id="rId795" xr:uid="{110B9A00-D395-1F4B-A940-318634C41C1E}"/>
+    <hyperlink ref="C11" r:id="rId796" xr:uid="{2F168C6A-5DB1-B547-A8B4-3CEFD9DF2E6A}"/>
+    <hyperlink ref="C205" r:id="rId797" xr:uid="{F29ABB1D-0843-0A42-B36D-FB287E8B4165}"/>
+    <hyperlink ref="C22" r:id="rId798" xr:uid="{CE6830DC-96B1-2E4D-9A3F-34AB2E710336}"/>
+    <hyperlink ref="C391" r:id="rId799" xr:uid="{7FD1B532-445E-BD48-9AAB-745C2E7B6C20}"/>
+    <hyperlink ref="C228" r:id="rId800" xr:uid="{F9BE806D-F252-914C-9915-80F376FC45EF}"/>
+    <hyperlink ref="C186" r:id="rId801" xr:uid="{D224FA92-1323-294E-8FB0-201721CC4678}"/>
+    <hyperlink ref="C267" r:id="rId802" xr:uid="{BA829218-2BCF-064F-A32A-418C332FAAFB}"/>
+    <hyperlink ref="C219" r:id="rId803" xr:uid="{37D33874-C042-3A43-AAEF-8EDBDD539F3B}"/>
+    <hyperlink ref="C85" r:id="rId804" xr:uid="{4F57F1C8-D6B4-AD4E-B19B-9779B2CFCCF4}"/>
+    <hyperlink ref="C371" r:id="rId805" xr:uid="{4A824AD5-3583-6142-8AAF-7E30C1649D8A}"/>
+    <hyperlink ref="C190" r:id="rId806" xr:uid="{0A80ECCF-D8AF-C14E-83AE-025C80A5D7B3}"/>
+    <hyperlink ref="C101" r:id="rId807" xr:uid="{FD94DD7C-6504-204D-8A4F-E84DBF77209A}"/>
+    <hyperlink ref="C192" r:id="rId808" xr:uid="{2C627CBB-184F-844A-B0F3-EB6BA462F2E8}"/>
+    <hyperlink ref="C208" r:id="rId809" xr:uid="{718A51CC-2712-384F-8545-1B98B455E15D}"/>
+    <hyperlink ref="C325" r:id="rId810" xr:uid="{B5CE8BBB-0F96-F941-BA91-BB673891D76B}"/>
+    <hyperlink ref="C233" r:id="rId811" xr:uid="{D88D4537-9BFA-A94B-AD09-09AB1E45E960}"/>
+    <hyperlink ref="C20" r:id="rId812" xr:uid="{6633F93F-0751-2141-96AB-7F910AF420EC}"/>
+    <hyperlink ref="C78" r:id="rId813" xr:uid="{50FC3F09-FAF7-354D-BC70-2E5064651E6C}"/>
+    <hyperlink ref="C424" r:id="rId814" xr:uid="{CD8F27D0-BF3D-114F-B6EA-1F90DB66AA47}"/>
+    <hyperlink ref="C183" r:id="rId815" xr:uid="{E3108982-F358-5A43-8DA1-10F13FFB04C6}"/>
+    <hyperlink ref="C217" r:id="rId816" xr:uid="{6A773F23-563C-AF49-9F01-320975D30CDE}"/>
+    <hyperlink ref="C61" r:id="rId817" xr:uid="{D8F0387D-0D68-2340-8C5A-9F64F799637B}"/>
+    <hyperlink ref="C80" r:id="rId818" xr:uid="{CB4530EC-CFE5-6745-AE91-F0FC88D2D622}"/>
+    <hyperlink ref="C147" r:id="rId819" xr:uid="{5A9F8860-9D6F-C54C-8BDE-05F7F1E7295C}"/>
+    <hyperlink ref="C413" r:id="rId820" xr:uid="{344AE020-3CCE-934B-B835-A6032941C959}"/>
+    <hyperlink ref="C272" r:id="rId821" xr:uid="{34844D05-EB92-E440-A44B-E1591BCA69B8}"/>
+    <hyperlink ref="C7" r:id="rId822" xr:uid="{F6D33B10-14DC-FC47-A2BA-614E99E35D56}"/>
+    <hyperlink ref="C5" r:id="rId823" xr:uid="{63DA1D3A-6366-CF49-8B45-F02278CF1F51}"/>
+    <hyperlink ref="C69" r:id="rId824" xr:uid="{2C47FE2E-5072-9D43-848A-A5A6C4525231}"/>
+    <hyperlink ref="C71" r:id="rId825" xr:uid="{09026BF6-466C-D445-B595-FF9F14D99375}"/>
+    <hyperlink ref="C96" r:id="rId826" xr:uid="{06D9B102-87EA-AA40-80C2-A73AF29735B7}"/>
+    <hyperlink ref="C103" r:id="rId827" xr:uid="{3BAA2A89-7D0B-F748-B73C-53049E1BCDF8}"/>
+    <hyperlink ref="C108" r:id="rId828" xr:uid="{93F5EF2E-5838-444B-8B1B-43D47613C1A3}"/>
+    <hyperlink ref="C110" r:id="rId829" xr:uid="{BD2CBEEF-1242-9749-A101-354908965214}"/>
+    <hyperlink ref="C118" r:id="rId830" xr:uid="{2B8007F4-ED47-A343-8EAA-35E871A9D2C5}"/>
+    <hyperlink ref="C123" r:id="rId831" xr:uid="{1C586C1B-0708-F740-9C8A-6E015998F5C2}"/>
+    <hyperlink ref="C124" r:id="rId832" xr:uid="{9EEA0ED9-21B9-A84F-BF27-9032FC944B58}"/>
+    <hyperlink ref="C138" r:id="rId833" xr:uid="{00E9A2B8-6875-8F47-A008-68D72EFB1EA3}"/>
+    <hyperlink ref="C141" r:id="rId834" xr:uid="{4ECE6F6A-9759-DE42-B126-AC5F6933F5A5}"/>
+    <hyperlink ref="C160" r:id="rId835" xr:uid="{7A726D4C-D0C8-E145-96FE-0AB9C1D4DB76}"/>
+    <hyperlink ref="C175" r:id="rId836" xr:uid="{FFF222FC-4679-304F-9E65-A6E2A4F56880}"/>
+    <hyperlink ref="C197" r:id="rId837" xr:uid="{423D125E-DFC3-6B46-B487-32FA1CB0541F}"/>
+    <hyperlink ref="C200" r:id="rId838" xr:uid="{6DCFBE1E-C4CB-BC4D-92B3-6D52AA47C300}"/>
+    <hyperlink ref="C210" r:id="rId839" xr:uid="{7700C3D6-2B76-8948-BD9C-F73F267D6EAD}"/>
+    <hyperlink ref="C218" r:id="rId840" xr:uid="{4C8F1892-F25C-8144-BEE1-727167C3ECED}"/>
+    <hyperlink ref="C232" r:id="rId841" xr:uid="{6AEEAF5F-6478-E241-834D-C9C8BF6CBA14}"/>
+    <hyperlink ref="C243" r:id="rId842" xr:uid="{32D83001-3576-1542-AA16-8966F2B5B424}"/>
+    <hyperlink ref="C289" r:id="rId843" xr:uid="{EDAE6026-248A-FD48-B1AA-2DC0FACA6F5F}"/>
+    <hyperlink ref="C305" r:id="rId844" xr:uid="{D62C795C-DD06-FB42-803A-F613940CEEBC}"/>
+    <hyperlink ref="C306" r:id="rId845" xr:uid="{B354A3CE-C491-C54A-A87F-B9BF421D615A}"/>
+    <hyperlink ref="C354" r:id="rId846" xr:uid="{AA50A6C6-387F-6847-A485-3469D08CB9A6}"/>
+    <hyperlink ref="C362" r:id="rId847" xr:uid="{8BE97892-2C6C-9442-8177-D3FCCA4F4EF4}"/>
+    <hyperlink ref="C383" r:id="rId848" xr:uid="{9AD24AE4-EBBC-824B-B244-1D88C2114F6E}"/>
+    <hyperlink ref="C411" r:id="rId849" xr:uid="{B49B500D-6DC9-8243-B40B-F7EFAB371776}"/>
+    <hyperlink ref="C412" r:id="rId850" xr:uid="{96CC6555-9F2A-BA41-B536-0D3201099DD0}"/>
+    <hyperlink ref="C415" r:id="rId851" xr:uid="{AB299E03-A4D1-8743-BD38-248347476793}"/>
+    <hyperlink ref="C416" r:id="rId852" xr:uid="{AAD42D0F-1AE8-5748-A3ED-8C0C4A2A4253}"/>
+    <hyperlink ref="C418" r:id="rId853" xr:uid="{EFD7B848-028A-B64F-A7F1-4C5745BD5879}"/>
+    <hyperlink ref="C50" r:id="rId854" xr:uid="{5632BEF9-3AEF-394E-8A82-ED806ADE36E2}"/>
+    <hyperlink ref="C353" r:id="rId855" xr:uid="{8D22E2CC-95BA-4641-9D5C-4C40B0C3FDEE}"/>
+    <hyperlink ref="C8" r:id="rId856" xr:uid="{3E619336-8360-3F45-A63F-7E6B13A2974F}"/>
+    <hyperlink ref="C68" r:id="rId857" xr:uid="{BA7FE2CE-1756-3B48-B0DB-9AE4F96E3D15}"/>
+    <hyperlink ref="C94" r:id="rId858" xr:uid="{4984DA28-0BD6-0247-9CF5-56724A1BC245}"/>
+    <hyperlink ref="C145" r:id="rId859" xr:uid="{AB5B149E-7A28-804F-95E1-50E4ADBD1B40}"/>
+    <hyperlink ref="C202" r:id="rId860" xr:uid="{13218D2C-7682-8C46-AD90-17013B291640}"/>
+    <hyperlink ref="C227" r:id="rId861" xr:uid="{4C83F386-6DD8-8D4D-90EA-7A315391E5C1}"/>
+    <hyperlink ref="C328" r:id="rId862" xr:uid="{DC7A4B69-6C2D-284A-962E-0C9E21ED5759}"/>
+    <hyperlink ref="C352" r:id="rId863" xr:uid="{47428F7E-434F-5644-AA88-0DACC7519868}"/>
+    <hyperlink ref="C361" r:id="rId864" xr:uid="{E1D03D05-CEFF-3C4C-BE02-550C3688E46C}"/>
+    <hyperlink ref="C396" r:id="rId865" xr:uid="{83B90A75-61C6-574B-AE35-0882209D6296}"/>
+    <hyperlink ref="C419" r:id="rId866" xr:uid="{CFF68CBA-7D80-DB40-A33C-79B04572E377}"/>
+    <hyperlink ref="C109" r:id="rId867" xr:uid="{508FB78B-81C2-D342-8FC8-D312D1BCD32A}"/>
+    <hyperlink ref="C173" r:id="rId868" xr:uid="{E5EC7A20-1FFE-924E-B218-5272A3C3D6C4}"/>
+    <hyperlink ref="C185" r:id="rId869" xr:uid="{B48DF5C2-A451-4D4E-A8C5-E5FF55BDBD91}"/>
+    <hyperlink ref="C194" r:id="rId870" xr:uid="{34741F92-B604-4340-8CE9-3604ACEDF65A}"/>
+    <hyperlink ref="C242" r:id="rId871" xr:uid="{72BCFD64-49DE-CC4C-A05A-379BA315D58E}"/>
+    <hyperlink ref="C313" r:id="rId872" xr:uid="{67DC6B3E-A35B-0943-A465-2DDC4BFF4B50}"/>
+    <hyperlink ref="C417" r:id="rId873" xr:uid="{0673B093-B929-964B-A023-123954BF05DC}"/>
+    <hyperlink ref="C237" r:id="rId874" xr:uid="{F60BEFE5-AEBE-754A-B099-E4662EC90761}"/>
+    <hyperlink ref="C276" r:id="rId875" xr:uid="{B1CB3F33-4350-6B46-BDA7-B05BC4320B81}"/>
+    <hyperlink ref="C14" r:id="rId876" xr:uid="{782F07A5-E6BA-D94C-9EAF-AD57EB9CAC81}"/>
+    <hyperlink ref="C16" r:id="rId877" xr:uid="{09AF6283-DB01-FA4A-B820-80BFDAC07001}"/>
+    <hyperlink ref="C18" r:id="rId878" xr:uid="{8F8DC54F-5D26-5447-9741-ECC5F370A897}"/>
+    <hyperlink ref="C26" r:id="rId879" xr:uid="{751145A5-A9C7-B741-9918-22BDC05D950D}"/>
+    <hyperlink ref="C27" r:id="rId880" xr:uid="{F64EEF90-CAE2-AF45-BE90-A00817A47560}"/>
+    <hyperlink ref="C29" r:id="rId881" xr:uid="{6854C35B-8E4B-1D4E-A94C-33DF9DFED5A1}"/>
+    <hyperlink ref="C37" r:id="rId882" xr:uid="{69FBC77F-AF2F-D84F-AF29-77C96D2CDFEB}"/>
+    <hyperlink ref="C63" r:id="rId883" xr:uid="{35ED95E7-DAFC-C943-BE9A-AA7B95FD8880}"/>
+    <hyperlink ref="C65" r:id="rId884" xr:uid="{4AC881D1-3DB9-604B-A116-B0AAD5358CF2}"/>
+    <hyperlink ref="C66" r:id="rId885" xr:uid="{CDE2974C-0D4F-F041-9D2F-7326E2A4D570}"/>
+    <hyperlink ref="C67" r:id="rId886" xr:uid="{AC851C3A-D179-984F-BBA6-2866541369B8}"/>
+    <hyperlink ref="C70" r:id="rId887" xr:uid="{CF9CAD12-B208-A544-B9A2-A82C74A7E4E8}"/>
+    <hyperlink ref="C76" r:id="rId888" xr:uid="{67169932-1D75-024B-8013-69015C060585}"/>
+    <hyperlink ref="C82" r:id="rId889" xr:uid="{01BD25B9-03DF-A044-A8EE-413520F05F3B}"/>
+    <hyperlink ref="C87" r:id="rId890" xr:uid="{3341AD73-D3F1-B64F-8EED-43A9EEB9DBE0}"/>
+    <hyperlink ref="C102" r:id="rId891" xr:uid="{7D72CC1A-A3D9-6A44-A0B6-DB90314A6B41}"/>
+    <hyperlink ref="C116" r:id="rId892" xr:uid="{DAD95298-3B2C-9640-97ED-7AAA0145D805}"/>
+    <hyperlink ref="C126" r:id="rId893" xr:uid="{085709E6-34D7-5046-95F3-2DE5D429CF84}"/>
+    <hyperlink ref="C127" r:id="rId894" xr:uid="{D2C86457-299D-F44A-9990-45EB0B32DF34}"/>
+    <hyperlink ref="C131" r:id="rId895" xr:uid="{250BE1D9-64B3-114A-9F42-863750E00AC9}"/>
+    <hyperlink ref="C149" r:id="rId896" xr:uid="{D0755E54-F42C-014D-8454-B69E6C67D19C}"/>
+    <hyperlink ref="C158" r:id="rId897" xr:uid="{4AFC7D21-E8B2-7C42-B812-DA1EA3FED0F5}"/>
+    <hyperlink ref="C167" r:id="rId898" xr:uid="{F29255CE-F7E5-724E-BBF3-FC25310D87F9}"/>
+    <hyperlink ref="C168" r:id="rId899" xr:uid="{512158E2-E44C-364A-9BD2-556E8B6625ED}"/>
+    <hyperlink ref="C178" r:id="rId900" xr:uid="{AB7CA3C6-6254-8C4F-A0F1-4306AE3144F3}"/>
+    <hyperlink ref="C191" r:id="rId901" xr:uid="{617E2680-9F4A-E441-BC90-E2228C6174D7}"/>
+    <hyperlink ref="C193" r:id="rId902" xr:uid="{77302E43-FEF7-1642-BDC9-A0A0E07CFCDA}"/>
+    <hyperlink ref="C226" r:id="rId903" xr:uid="{0A26026B-A483-3F45-A25F-3182837AB156}"/>
+    <hyperlink ref="C235" r:id="rId904" xr:uid="{66E6768C-3D8C-104F-957D-E91EB40BE987}"/>
+    <hyperlink ref="C280" r:id="rId905" xr:uid="{361F7B95-BC76-8746-8007-D1F0399659EB}"/>
+    <hyperlink ref="C283" r:id="rId906" xr:uid="{6AEF2A55-B90C-D947-A3DB-3950E65CCF91}"/>
+    <hyperlink ref="C310" r:id="rId907" xr:uid="{50DE7110-1858-6447-B332-8486C9A2CD7D}"/>
+    <hyperlink ref="C314" r:id="rId908" xr:uid="{04E7583F-31C5-FA4A-830D-CCE900EF0953}"/>
+    <hyperlink ref="C317" r:id="rId909" xr:uid="{87718D04-0EF7-E246-9348-AB07F467C68C}"/>
+    <hyperlink ref="C339" r:id="rId910" xr:uid="{F3A30D53-9AC7-C041-A447-C847AC0A6F76}"/>
+    <hyperlink ref="C341" r:id="rId911" xr:uid="{9D5E5E08-460F-E049-9759-9624CB693466}"/>
+    <hyperlink ref="C350" r:id="rId912" xr:uid="{44B7D85B-854B-9A48-AE4C-0E9C98C803E1}"/>
+    <hyperlink ref="C378" r:id="rId913" xr:uid="{BF10448F-C0B7-1844-8489-243FC8662260}"/>
+    <hyperlink ref="C407" r:id="rId914" xr:uid="{E68EA5D4-3426-9C48-BFB8-6934F52752CC}"/>
+    <hyperlink ref="C349" r:id="rId915" xr:uid="{B2BD0AEB-2569-3A4F-AD18-6F87C06924E1}"/>
+    <hyperlink ref="C230" r:id="rId916" xr:uid="{5B16EDE8-CD50-F949-B808-BEEB435D1E4A}"/>
+    <hyperlink ref="C156" r:id="rId917" xr:uid="{6E88EFDD-3E8E-5747-865B-0CA29012BFB2}"/>
+    <hyperlink ref="C315" r:id="rId918" xr:uid="{73BEBA81-B01E-8B42-8617-F159402B9E43}"/>
+    <hyperlink ref="C319" r:id="rId919" xr:uid="{9A022E02-C19B-BC4B-9435-7DC6314880C6}"/>
+    <hyperlink ref="C224" r:id="rId920" xr:uid="{B8C2B478-0552-6247-9C34-FFB1E29B17EA}"/>
+    <hyperlink ref="C253" r:id="rId921" xr:uid="{A5F658CB-6352-9149-A2FD-5B76B1A1A741}"/>
+    <hyperlink ref="C368" r:id="rId922" xr:uid="{3CF527ED-9CCE-FF45-BCF1-3FBFD80913EC}"/>
+    <hyperlink ref="C405" r:id="rId923" xr:uid="{19352DF4-15B1-E541-BAC2-9F8B1B91488D}"/>
+    <hyperlink ref="C13" r:id="rId924" xr:uid="{4FCB3957-4BF4-8644-B425-A72D19FD615B}"/>
+    <hyperlink ref="C36" r:id="rId925" xr:uid="{FF448335-D589-354D-A415-8AA9659FB76F}"/>
+    <hyperlink ref="C58" r:id="rId926" xr:uid="{E108EF57-AB4B-5744-8C8F-3073CF6BEEEC}"/>
+    <hyperlink ref="C75" r:id="rId927" xr:uid="{F34304A9-CDBE-364E-AA75-82CFFB40DBAA}"/>
+    <hyperlink ref="C129" r:id="rId928" xr:uid="{67811942-E441-2540-87D6-0C43251F266A}"/>
+    <hyperlink ref="C134" r:id="rId929" xr:uid="{2F6EBA77-D456-DF48-931A-2F75ED7EC69F}"/>
+    <hyperlink ref="C161" r:id="rId930" xr:uid="{48286D4B-6792-B245-A8AF-F5D93BE58624}"/>
+    <hyperlink ref="C180" r:id="rId931" xr:uid="{EF107BC4-773E-8D40-856D-3D498724D791}"/>
+    <hyperlink ref="C206" r:id="rId932" xr:uid="{AA9469D7-19F7-0648-9647-CB960CBBF029}"/>
+    <hyperlink ref="C234" r:id="rId933" xr:uid="{1AE5F1D8-F9C8-804B-A2AF-F08473449D44}"/>
+    <hyperlink ref="C326" r:id="rId934" xr:uid="{5154F2FB-9B36-244A-ABA2-81D07979B2D5}"/>
+    <hyperlink ref="C365" r:id="rId935" xr:uid="{1F7F82F3-D22B-284C-AE2E-3A77AE2A45C9}"/>
+    <hyperlink ref="C401" r:id="rId936" xr:uid="{7185F453-C92E-8A42-B865-8C1A57DFC321}"/>
+    <hyperlink ref="C148" r:id="rId937" xr:uid="{BB047775-AE4A-4946-B773-4BA9218C9C06}"/>
+    <hyperlink ref="C19" r:id="rId938" xr:uid="{CE5574D2-0D46-B741-B1C5-4C3AA02CA9C6}"/>
+    <hyperlink ref="C279" r:id="rId939" xr:uid="{9D7D0D7C-F7BB-7847-8327-B1B89E4D0C46}"/>
+    <hyperlink ref="C299" r:id="rId940" xr:uid="{A15BFDAE-0835-864B-BD13-4A99F6D43211}"/>
+    <hyperlink ref="C331" r:id="rId941" xr:uid="{3DA2BDFA-06D2-174A-8627-C828952B44A0}"/>
+    <hyperlink ref="C28" r:id="rId942" xr:uid="{47FC078A-FD7B-0A44-AD7C-462ADA2F5B3A}"/>
+    <hyperlink ref="C114" r:id="rId943" xr:uid="{FB29BC5D-3823-4448-B408-DAFBB1811030}"/>
+    <hyperlink ref="C144" r:id="rId944" xr:uid="{7825F525-30FF-394F-8375-46D5E9297387}"/>
+    <hyperlink ref="C261" r:id="rId945" xr:uid="{C17417EE-B2B1-2641-AE98-8A727B24B86C}"/>
+    <hyperlink ref="C285" r:id="rId946" xr:uid="{C59D8663-51DF-E248-9B07-BF59C6B1FF9A}"/>
+    <hyperlink ref="C369" r:id="rId947" xr:uid="{82037511-CEB6-1A4A-88B1-AC2F1C099475}"/>
+    <hyperlink ref="C15" r:id="rId948" xr:uid="{7F5CA91E-BDE9-F843-BEA7-326BF4E46206}"/>
+    <hyperlink ref="C35" r:id="rId949" xr:uid="{D21B5D37-A713-2E4E-9D9E-2CB052DFE0C9}"/>
+    <hyperlink ref="C40" r:id="rId950" xr:uid="{3380ED5B-CB3D-E74D-A3B0-910BA58DCC1B}"/>
+    <hyperlink ref="C137" r:id="rId951" xr:uid="{0652FFCF-E009-7349-A88C-B674C7D0CA62}"/>
+    <hyperlink ref="C135" r:id="rId952" xr:uid="{B3CC3706-2D3E-2E40-B13F-7F1FF6BBA224}"/>
+    <hyperlink ref="C142" r:id="rId953" xr:uid="{013585F7-487A-DB45-A41A-8C9980ADC7C7}"/>
+    <hyperlink ref="C151" r:id="rId954" xr:uid="{FE6ACCBD-32B1-374D-A214-627456A787A1}"/>
+    <hyperlink ref="C152" r:id="rId955" xr:uid="{C363A8CB-C79D-C44E-80B2-7964CF6D6927}"/>
+    <hyperlink ref="C157" r:id="rId956" xr:uid="{1A9E6950-737C-9D40-BDFC-F1CEAACDC745}"/>
+    <hyperlink ref="C189" r:id="rId957" xr:uid="{7B4723F3-A41D-7E4B-BF84-135597B852C1}"/>
+    <hyperlink ref="C211" r:id="rId958" xr:uid="{6DB3F870-B666-F242-A3CC-5E7F76419801}"/>
+    <hyperlink ref="C213" r:id="rId959" xr:uid="{2DF6C2B7-E189-9042-B1DB-8F3E7CA432A8}"/>
+    <hyperlink ref="C214" r:id="rId960" xr:uid="{87CC3A2E-DCBF-D14E-8CF3-CE8E0E4C4358}"/>
+    <hyperlink ref="C229" r:id="rId961" xr:uid="{76777943-25EA-3148-BC4D-B31D9E726092}"/>
+    <hyperlink ref="C262" r:id="rId962" xr:uid="{286A9A14-FCDC-B744-8542-F030BD525F80}"/>
+    <hyperlink ref="C298" r:id="rId963" xr:uid="{EEAE197E-5B0D-9249-B7C7-EFDDD3504C47}"/>
+    <hyperlink ref="C300" r:id="rId964" xr:uid="{CE83D55F-DC8F-0144-80EC-0567363476AC}"/>
+    <hyperlink ref="C308" r:id="rId965" xr:uid="{2BDBB92C-2FD2-CE40-AB07-07B8B8C328C4}"/>
+    <hyperlink ref="C316" r:id="rId966" xr:uid="{84FA7D1C-4865-8D4C-93D6-6CE66746AFF8}"/>
+    <hyperlink ref="C320" r:id="rId967" xr:uid="{526260B2-825A-2941-866A-7BA41DCA6FAB}"/>
+    <hyperlink ref="C357" r:id="rId968" xr:uid="{431681FD-D587-834B-A136-00B80825781E}"/>
+    <hyperlink ref="C375" r:id="rId969" xr:uid="{120DEE23-A0EE-2C4B-88C0-E8F1AB72E9D9}"/>
+    <hyperlink ref="C72" r:id="rId970" xr:uid="{AB7B5603-98BF-CF44-BD92-2740EB33632E}"/>
+    <hyperlink ref="C209" r:id="rId971" xr:uid="{2417DF44-837A-C241-9E0E-68FF7CBAD244}"/>
+    <hyperlink ref="C221" r:id="rId972" xr:uid="{0660397D-4424-DD46-9F74-DCE274C1D10E}"/>
+    <hyperlink ref="C377" r:id="rId973" xr:uid="{E0332A8D-B2F0-D046-A44B-D97FD5572FA4}"/>
+    <hyperlink ref="C136" r:id="rId974" xr:uid="{39DAC2C7-954C-844D-9B64-5A3729A5CB56}"/>
+    <hyperlink ref="C207" r:id="rId975" xr:uid="{2645FFC8-66D6-B94E-8225-4A5CB8D8743B}"/>
+    <hyperlink ref="C291" r:id="rId976" xr:uid="{A246143C-366A-2E49-9815-CAB2D1B07990}"/>
+    <hyperlink ref="C311" r:id="rId977" xr:uid="{BDAF5055-6D2C-4E43-9B49-AAD7B475AF14}"/>
+    <hyperlink ref="C388" r:id="rId978" xr:uid="{2B8258A3-5409-9340-B10B-FF56E75E0DC0}"/>
+    <hyperlink ref="C55" r:id="rId979" xr:uid="{F5670813-A5DD-0542-B08E-69C88B03903C}"/>
+    <hyperlink ref="C79" r:id="rId980" xr:uid="{2EA0220F-9AB4-A049-9C00-9FDAAE4E2EE9}"/>
+    <hyperlink ref="C83" r:id="rId981" xr:uid="{E7334D68-55E3-0345-85D1-16E8F35B034D}"/>
+    <hyperlink ref="C111" r:id="rId982" xr:uid="{228158AD-FC95-C943-8E10-14B529C3987F}"/>
+    <hyperlink ref="C117" r:id="rId983" xr:uid="{03F90569-0334-174B-9907-9727021B7DD4}"/>
+    <hyperlink ref="C120" r:id="rId984" xr:uid="{44575BAA-D360-0C48-AD15-BCC81DE5BB99}"/>
+    <hyperlink ref="C177" r:id="rId985" xr:uid="{17A7DCCC-4DC9-594C-B366-3D2896195EA3}"/>
+    <hyperlink ref="C182" r:id="rId986" xr:uid="{938EE9B8-FB98-7C4F-A00B-D4784AA4651F}"/>
+    <hyperlink ref="C187" r:id="rId987" xr:uid="{9967D8B7-7CAB-4C44-8220-060B0761464B}"/>
+    <hyperlink ref="C188" r:id="rId988" xr:uid="{FF7233A1-65E1-8948-A181-3823B9F8AE38}"/>
+    <hyperlink ref="C263" r:id="rId989" xr:uid="{C7B36BBA-A0BD-A445-8F70-E6F280B1EA06}"/>
+    <hyperlink ref="C264" r:id="rId990" xr:uid="{46167394-D10A-F443-AE5F-41EC12EC0821}"/>
+    <hyperlink ref="C265" r:id="rId991" xr:uid="{13935CDA-1C74-FE41-B3E8-2B44ABCE0668}"/>
+    <hyperlink ref="C266" r:id="rId992" xr:uid="{ADE7EFD8-24BB-DD4C-9B83-253CC30C5FCB}"/>
+    <hyperlink ref="C274" r:id="rId993" xr:uid="{0CA01CCD-D210-7548-9A10-54C4C244EB4C}"/>
+    <hyperlink ref="C340" r:id="rId994" xr:uid="{75898B27-5CB7-4844-A098-4A6122B0D9E3}"/>
+    <hyperlink ref="C344" r:id="rId995" xr:uid="{52A80F70-9D41-9649-BB38-AD1FCC26D339}"/>
+    <hyperlink ref="C23" r:id="rId996" xr:uid="{768D5DF8-F76A-5F4D-8931-FB16833135CE}"/>
+    <hyperlink ref="C24" r:id="rId997" xr:uid="{2094B28B-30C9-E44B-8FC6-E24BA0E4A483}"/>
+    <hyperlink ref="C41" r:id="rId998" xr:uid="{71D37317-3E01-074A-AF1C-E7ACD0617CF4}"/>
+    <hyperlink ref="C44" r:id="rId999" xr:uid="{13DDA962-2500-0D40-B022-70B27D1DF8B2}"/>
+    <hyperlink ref="C84" r:id="rId1000" xr:uid="{5906E64D-D180-874C-9109-1514FA4A8C69}"/>
+    <hyperlink ref="C86" r:id="rId1001" xr:uid="{85B20359-5817-2640-82A1-F6CCCFE25523}"/>
+    <hyperlink ref="C95" r:id="rId1002" xr:uid="{660A9183-2044-AC4C-8816-EF373400302D}"/>
+    <hyperlink ref="C98" r:id="rId1003" xr:uid="{6FC4FD97-72D7-2346-ABD8-E05A808461E3}"/>
+    <hyperlink ref="C154" r:id="rId1004" xr:uid="{73D7CD8D-2441-BB4C-B8F8-4B37DBE9DA75}"/>
+    <hyperlink ref="C155" r:id="rId1005" xr:uid="{206FE1BF-E40D-2D4D-80F9-E9B704ED3712}"/>
+    <hyperlink ref="C163" r:id="rId1006" xr:uid="{6431DB6B-D4D0-B743-938E-57355B8F7BD5}"/>
+    <hyperlink ref="C166" r:id="rId1007" xr:uid="{C04020D4-34B1-A74E-ABD2-E88955613DA6}"/>
+    <hyperlink ref="C172" r:id="rId1008" xr:uid="{1EDCD790-DA2B-334C-8850-8E8A480EC2E3}"/>
+    <hyperlink ref="C257" r:id="rId1009" xr:uid="{141FC145-CD5A-CC45-A9BF-23C16D50A02D}"/>
+    <hyperlink ref="C268" r:id="rId1010" xr:uid="{038C562C-7F65-0847-9266-ACA30DE2A7C5}"/>
+    <hyperlink ref="C284" r:id="rId1011" xr:uid="{98160233-728E-DC41-9282-3EBEDE49978B}"/>
+    <hyperlink ref="C307" r:id="rId1012" xr:uid="{1B5A6EF7-92AE-DD42-B579-6EEE1EB3C5BC}"/>
+    <hyperlink ref="C390" r:id="rId1013" xr:uid="{5D68C185-ED3A-F84C-BF61-CFDB6EB1DDBA}"/>
+    <hyperlink ref="C400" r:id="rId1014" xr:uid="{8B93B3B4-702D-FA4F-981B-CA7D2502FB47}"/>
+    <hyperlink ref="C402" r:id="rId1015" xr:uid="{0D9B606D-1506-0E47-85AF-ED902F34EE9B}"/>
+    <hyperlink ref="C9" r:id="rId1016" xr:uid="{9641542D-6746-2D46-AC83-6F80F11E9394}"/>
+    <hyperlink ref="C12" r:id="rId1017" xr:uid="{5A0D0D36-9156-0147-AE8F-F7B2C000E841}"/>
+    <hyperlink ref="C17" r:id="rId1018" xr:uid="{615716F2-0845-9D44-AA0B-3156F234A52F}"/>
+    <hyperlink ref="C62" r:id="rId1019" xr:uid="{528BEE18-E4FC-E24B-9792-C7673F9D8867}"/>
+    <hyperlink ref="C64" r:id="rId1020" xr:uid="{6E730E30-C9AC-C14A-96E0-43456FD37AFF}"/>
+    <hyperlink ref="C88" r:id="rId1021" xr:uid="{5C05E8B1-13BE-9B4B-8EE8-16A47D92B470}"/>
+    <hyperlink ref="C90" r:id="rId1022" xr:uid="{20EB0463-D9D0-AD45-8EB0-BED9FC966434}"/>
+    <hyperlink ref="C91" r:id="rId1023" xr:uid="{0E42B018-AFB3-554C-8B61-F76B7345BD6B}"/>
+    <hyperlink ref="C146" r:id="rId1024" xr:uid="{50F73DCC-A87D-CD4D-B47C-973AB81AA536}"/>
+    <hyperlink ref="C162" r:id="rId1025" xr:uid="{E0B97AA3-CE5E-124A-9517-481FC91D4ABA}"/>
+    <hyperlink ref="C181" r:id="rId1026" xr:uid="{F8C63541-1449-9F42-A23B-94B5897B8A2C}"/>
+    <hyperlink ref="C195" r:id="rId1027" xr:uid="{54EB1C1A-316B-AF4C-BB80-DD45EC29FC23}"/>
+    <hyperlink ref="C290" r:id="rId1028" xr:uid="{CD178216-13BA-CA42-9E51-94BB45C56AF4}"/>
+    <hyperlink ref="C324" r:id="rId1029" xr:uid="{19DC2A90-4EBD-374D-902D-7C288628BCA5}"/>
+    <hyperlink ref="C327" r:id="rId1030" xr:uid="{E8C17CB3-64D8-1246-B629-95AE79F3210B}"/>
+    <hyperlink ref="C329" r:id="rId1031" xr:uid="{542D03FA-6232-FA45-8E9F-247710E6E269}"/>
+    <hyperlink ref="C345" r:id="rId1032" xr:uid="{8593B1A1-0377-1A4C-8811-86F0541FB503}"/>
+    <hyperlink ref="C355" r:id="rId1033" xr:uid="{DD6DAF41-95B8-B44C-8B1B-CC3C8F258439}"/>
+    <hyperlink ref="C366" r:id="rId1034" xr:uid="{9B338F45-7131-F84C-94DC-18E61486D132}"/>
+    <hyperlink ref="C379" r:id="rId1035" xr:uid="{6BE2D129-F319-854E-BC8D-5EA729DB016E}"/>
+    <hyperlink ref="C3" r:id="rId1036" xr:uid="{1568CDE0-6A02-564C-A7CC-FBB03D2F894E}"/>
+    <hyperlink ref="C10" r:id="rId1037" xr:uid="{FDF772E1-494B-C448-8114-7F28A75ABF3D}"/>
+    <hyperlink ref="C25" r:id="rId1038" xr:uid="{85EC1F7F-150A-684D-9F29-2A40195EF3BC}"/>
+    <hyperlink ref="C32" r:id="rId1039" xr:uid="{D84CEC15-2E50-854A-AFF6-1443C8A804CB}"/>
+    <hyperlink ref="C53" r:id="rId1040" xr:uid="{6D067434-D4A5-0C43-B10D-01E925774907}"/>
+    <hyperlink ref="C81" r:id="rId1041" xr:uid="{31B36A21-DA7D-E047-9326-A67EA81951DB}"/>
+    <hyperlink ref="C93" r:id="rId1042" xr:uid="{627A175C-9960-784B-BDBE-8166E299EA9B}"/>
+    <hyperlink ref="C97" r:id="rId1043" xr:uid="{ECE51AB3-B76D-E24A-9B84-968DC57F4037}"/>
+    <hyperlink ref="C112" r:id="rId1044" xr:uid="{A5885814-258D-3D4E-8B44-2DB64F554498}"/>
+    <hyperlink ref="C115" r:id="rId1045" xr:uid="{A1F51276-0FBB-7144-90C2-1F25FDE10561}"/>
+    <hyperlink ref="C119" r:id="rId1046" xr:uid="{2A166B70-80CD-8C42-8998-827DD31EBFDD}"/>
+    <hyperlink ref="C125" r:id="rId1047" xr:uid="{9D0B20EB-D2D3-8644-9151-73CA03D73766}"/>
+    <hyperlink ref="C140" r:id="rId1048" xr:uid="{E315062A-E502-2A45-B0EA-0E020E81CD9C}"/>
+    <hyperlink ref="C143" r:id="rId1049" xr:uid="{7D429827-65D1-9246-81CA-8781023B8AB6}"/>
+    <hyperlink ref="C196" r:id="rId1050" xr:uid="{5AD90DFA-DCA0-804A-B837-301B8812EBD5}"/>
+    <hyperlink ref="C248" r:id="rId1051" xr:uid="{34C3B171-6623-B848-813A-2D0D01E407C2}"/>
+    <hyperlink ref="C249" r:id="rId1052" xr:uid="{BDB93213-C652-9147-8268-B52025A1B5FC}"/>
+    <hyperlink ref="C254" r:id="rId1053" xr:uid="{B57F990D-03CD-9947-8299-9D9F407E2E04}"/>
+    <hyperlink ref="C270" r:id="rId1054" xr:uid="{15344C2F-2A1E-804F-8EF4-9494958F6CB3}"/>
+    <hyperlink ref="C294" r:id="rId1055" xr:uid="{6E6860FD-F9A8-4446-A280-9C8EF03AA2D1}"/>
+    <hyperlink ref="C303" r:id="rId1056" xr:uid="{5F937C2E-1F8D-9045-88DD-D7C39F28A26B}"/>
+    <hyperlink ref="C334" r:id="rId1057" xr:uid="{BCB4C657-1AAA-F540-BAD8-5CDB56B4F546}"/>
+    <hyperlink ref="C343" r:id="rId1058" xr:uid="{D60D6804-1D42-BF43-83D5-5A378B32B445}"/>
+    <hyperlink ref="C376" r:id="rId1059" xr:uid="{CCDAFBAE-C748-0F40-9179-7FB2DE0B9D1D}"/>
+    <hyperlink ref="C397" r:id="rId1060" xr:uid="{58AAC1F4-C8E9-484A-9AF1-701D45E4C6A8}"/>
+    <hyperlink ref="C399" r:id="rId1061" xr:uid="{3FE59330-D3CB-2F4F-B4D3-DD3DAC7B7E9F}"/>
+    <hyperlink ref="C404" r:id="rId1062" xr:uid="{6D89F8C1-684D-5944-BDAE-358594215AED}"/>
+    <hyperlink ref="C406" r:id="rId1063" xr:uid="{EBD9FF31-B3C2-BB4B-A7FB-FE0640138CE1}"/>
+    <hyperlink ref="C425" r:id="rId1064" xr:uid="{383424E3-45F6-254F-B43A-BDD3E02DCBE4}"/>
+    <hyperlink ref="C4" r:id="rId1065" xr:uid="{A83BECDB-2D1E-1B40-900A-04CA8F756D06}"/>
+    <hyperlink ref="C21" r:id="rId1066" xr:uid="{7F47CD79-D39E-CE48-83B3-8C0E99E680B1}"/>
+    <hyperlink ref="C30" r:id="rId1067" xr:uid="{C7BCE7F7-04AB-F34B-A547-9930CD7EB6EA}"/>
+    <hyperlink ref="C34" r:id="rId1068" xr:uid="{FCABCB02-4A79-0B46-ABBE-FB94166CA653}"/>
+    <hyperlink ref="C42" r:id="rId1069" xr:uid="{452BA881-90E9-274A-ACC8-E66FCC46581C}"/>
+    <hyperlink ref="C52" r:id="rId1070" xr:uid="{87B52D6C-4FD4-5A4F-8D7D-BE72883F01C3}"/>
+    <hyperlink ref="C51" r:id="rId1071" xr:uid="{EC1AC878-71A3-2448-8B57-3BCBB01CEB20}"/>
+    <hyperlink ref="C74" r:id="rId1072" xr:uid="{7321FE27-46DC-4041-ABBC-0A7227E3A653}"/>
+    <hyperlink ref="C121" r:id="rId1073" xr:uid="{F5342DD0-BA52-D44E-A5E3-EAB5884AEDC9}"/>
+    <hyperlink ref="C128" r:id="rId1074" xr:uid="{C70280E5-8825-6446-BED4-6A9274E01221}"/>
+    <hyperlink ref="C130" r:id="rId1075" xr:uid="{253ACC6D-653B-3745-A797-D2EBCC751259}"/>
+    <hyperlink ref="C150" r:id="rId1076" xr:uid="{4D9EE3B7-7068-F047-B438-EBB67414C734}"/>
+    <hyperlink ref="C165" r:id="rId1077" xr:uid="{E550F949-C086-AF47-9F9D-D9B1D2AD0168}"/>
+    <hyperlink ref="C176" r:id="rId1078" xr:uid="{8AAF4CCC-84CB-534E-9067-513117C948FA}"/>
+    <hyperlink ref="C199" r:id="rId1079" xr:uid="{CC919682-A109-CC47-AEE1-D3C1568E582A}"/>
+    <hyperlink ref="C201" r:id="rId1080" xr:uid="{7C4D5C97-C8B2-4243-B4C5-A26A9157F5C8}"/>
+    <hyperlink ref="C216" r:id="rId1081" xr:uid="{3BCFFA90-30DE-F345-AEDE-8A14C65E9A63}"/>
+    <hyperlink ref="C239" r:id="rId1082" xr:uid="{DA10F531-B96E-D14E-A492-21377A6697D0}"/>
+    <hyperlink ref="C245" r:id="rId1083" xr:uid="{6BBA043A-88D3-D04C-AD8A-49834C2B08CA}"/>
+    <hyperlink ref="C247" r:id="rId1084" xr:uid="{51C82E58-09DE-2D4B-8686-947335813CEC}"/>
+    <hyperlink ref="C203" r:id="rId1085" xr:uid="{9857BD2A-C13C-A245-8827-2A825B565BE3}"/>
+    <hyperlink ref="C252" r:id="rId1086" xr:uid="{B4C2F0DF-02AF-C24F-A4F4-EDF619836A5C}"/>
+    <hyperlink ref="C250" r:id="rId1087" xr:uid="{F7C22995-E4D2-6245-8F67-3E412FA335F1}"/>
+    <hyperlink ref="C256" r:id="rId1088" xr:uid="{9B8424C2-2060-EE4E-BC1F-092C89401573}"/>
+    <hyperlink ref="C271" r:id="rId1089" xr:uid="{48B9574A-C40C-5E49-A3CD-D335D6CD4ADF}"/>
+    <hyperlink ref="C273" r:id="rId1090" xr:uid="{32224A23-9C0F-3A4C-8BF5-02006D91F00E}"/>
+    <hyperlink ref="C275" r:id="rId1091" xr:uid="{05AA4D62-120B-964C-B26B-0D30B44A0A26}"/>
+    <hyperlink ref="C277" r:id="rId1092" xr:uid="{CAD23806-C37F-3B40-82B9-83C7EA0BB6CD}"/>
+    <hyperlink ref="C286" r:id="rId1093" xr:uid="{9309D6F3-7A87-AE45-80F2-366FEB2C79A4}"/>
+    <hyperlink ref="C287" r:id="rId1094" xr:uid="{CEBEDF30-735D-FA40-9D05-96BE744305FB}"/>
+    <hyperlink ref="C288" r:id="rId1095" xr:uid="{16FC2ABD-FEC4-C64C-A071-83B40C7E43C5}"/>
+    <hyperlink ref="C302" r:id="rId1096" xr:uid="{938600AA-53D8-014C-8DCC-6AE5FD120151}"/>
+    <hyperlink ref="C312" r:id="rId1097" xr:uid="{1C1851A9-FE84-1B44-8190-EADBBA2E6788}"/>
+    <hyperlink ref="C318" r:id="rId1098" xr:uid="{20B8C8FC-EDEF-9A45-A2C0-3B3827FCC9E3}"/>
+    <hyperlink ref="C321" r:id="rId1099" xr:uid="{D07A9F65-3123-BA4B-A17B-B163EE2AA023}"/>
+    <hyperlink ref="C322" r:id="rId1100" xr:uid="{4C470E5F-5B5B-864C-A6C3-FEF3D910DA3A}"/>
+    <hyperlink ref="C330" r:id="rId1101" xr:uid="{C3872969-B88D-B14A-8260-C70021B6C1AB}"/>
+    <hyperlink ref="C332" r:id="rId1102" xr:uid="{EAE14FDC-0144-0D41-ACA5-2625706882AD}"/>
+    <hyperlink ref="C342" r:id="rId1103" xr:uid="{544F28DA-0288-9040-9D79-E4C7671C775B}"/>
+    <hyperlink ref="C346" r:id="rId1104" xr:uid="{0B2BE725-D71F-414B-B698-0DF6508E0B77}"/>
+    <hyperlink ref="C347" r:id="rId1105" xr:uid="{468D3E87-A0D7-0245-B143-89252300FBB7}"/>
+    <hyperlink ref="C363" r:id="rId1106" xr:uid="{0FF02B21-AF64-EB46-A8A3-D020CCE70DC5}"/>
+    <hyperlink ref="C364" r:id="rId1107" xr:uid="{C601CE32-8DB3-6346-871E-C2BB42FEC729}"/>
+    <hyperlink ref="C367" r:id="rId1108" xr:uid="{750A5319-3A30-6A4E-A08C-B63A6ADF7A84}"/>
+    <hyperlink ref="C370" r:id="rId1109" xr:uid="{495A88EB-2153-644D-8BEE-27B6CCD9D055}"/>
+    <hyperlink ref="C381" r:id="rId1110" xr:uid="{BE12F7CB-5DA3-5141-B47B-55D21DE73BB9}"/>
+    <hyperlink ref="C382" r:id="rId1111" xr:uid="{B1B12249-9736-634C-B07B-016D4FA7DCD7}"/>
+    <hyperlink ref="C384" r:id="rId1112" xr:uid="{3CFD5AB7-219D-9E47-B9BA-A4FD06BF1EF1}"/>
+    <hyperlink ref="C385" r:id="rId1113" xr:uid="{7EF4188C-2303-5348-AF7E-3055CB17CC01}"/>
+    <hyperlink ref="C386" r:id="rId1114" xr:uid="{89431FC5-6088-1D41-B24E-869A527EAC74}"/>
+    <hyperlink ref="C387" r:id="rId1115" xr:uid="{71726A24-A0E5-6348-AD0E-BC43F45995AE}"/>
+    <hyperlink ref="C392" r:id="rId1116" xr:uid="{F203AEED-D774-9C43-9793-97B01D16C705}"/>
+    <hyperlink ref="C395" r:id="rId1117" xr:uid="{06C30478-7BDB-1044-8DB3-EDA3F911E46A}"/>
+    <hyperlink ref="C408" r:id="rId1118" xr:uid="{095D1E4A-543B-064A-90BA-E32B2CF9B85F}"/>
+    <hyperlink ref="C414" r:id="rId1119" xr:uid="{52350D48-2172-9148-985E-45801FDE1F17}"/>
+    <hyperlink ref="C420" r:id="rId1120" xr:uid="{572EF7AB-7B95-0542-884E-91ED59398828}"/>
+    <hyperlink ref="C421" r:id="rId1121" xr:uid="{5CE573D5-FA25-2C4D-95F6-9F9722127F96}"/>
+    <hyperlink ref="C422" r:id="rId1122" xr:uid="{65B7C535-BD69-0644-B61D-817B19AA6257}"/>
+    <hyperlink ref="C293" r:id="rId1123" xr:uid="{78D7017A-8E3D-CF4D-9A7E-264DD75E4235}"/>
+    <hyperlink ref="C77" r:id="rId1124" xr:uid="{10A9B953-D5C9-334D-BB0D-0F6513BC2D85}"/>
+    <hyperlink ref="C403" r:id="rId1125" xr:uid="{C54FA0C7-E55B-8547-98B5-6126AA45C9B3}"/>
+    <hyperlink ref="C38" r:id="rId1126" xr:uid="{8FCC690F-1846-D340-AA77-71BBD1F0E6D1}"/>
+    <hyperlink ref="C113" r:id="rId1127" xr:uid="{241AECC0-FEB2-A948-9251-BC37F74BD4A4}"/>
+    <hyperlink ref="C215" r:id="rId1128" xr:uid="{AADA8C67-1D0A-5E44-9650-583DE476759E}"/>
+    <hyperlink ref="C107" r:id="rId1129" xr:uid="{E38306CC-F833-1C49-BBCF-7E833365DD7F}"/>
+    <hyperlink ref="C106" r:id="rId1130" xr:uid="{721F2ACB-EB7C-FB40-ADA3-5064A04E9FE4}"/>
+    <hyperlink ref="C356" r:id="rId1131" xr:uid="{BA214894-1345-4243-8B94-E59748875842}"/>
+    <hyperlink ref="C423" r:id="rId1132" xr:uid="{8C60A902-7977-C545-AED9-AA6D19D272E5}"/>
+    <hyperlink ref="C309" r:id="rId1133" xr:uid="{F762E8E9-6815-AF4A-AFE3-9B5402D56221}"/>
+    <hyperlink ref="C39" r:id="rId1134" xr:uid="{6BBC855E-15FF-B848-8C47-8848988B4270}"/>
+    <hyperlink ref="C57" r:id="rId1135" xr:uid="{D09792FC-04B6-DD41-A4AB-1A53026E37A2}"/>
+    <hyperlink ref="C73" r:id="rId1136" xr:uid="{FDB80939-593E-EF49-A4CF-0B907A66732C}"/>
+    <hyperlink ref="C236" r:id="rId1137" xr:uid="{DFB68A48-9114-DA43-B4F6-67DD14A51051}"/>
+    <hyperlink ref="C122" r:id="rId1138" xr:uid="{0A0FC2B0-635A-9543-AF09-809C1BAC55B1}"/>
+    <hyperlink ref="C204" r:id="rId1139" xr:uid="{01D53946-83D0-CE48-B833-660917FD2A13}"/>
+    <hyperlink ref="C222" r:id="rId1140" xr:uid="{2A6D4FA7-A5CA-3141-98B8-CED5654B8796}"/>
+    <hyperlink ref="C231" r:id="rId1141" xr:uid="{B2AD6243-3BA5-3147-8715-87E5BB848ABE}"/>
+    <hyperlink ref="C251" r:id="rId1142" xr:uid="{1F26E71C-7C9E-5F46-B372-7F16ED3E59C7}"/>
+    <hyperlink ref="C244" r:id="rId1143" xr:uid="{0BE8C438-A326-2048-997B-FD1D17581816}"/>
+    <hyperlink ref="C297" r:id="rId1144" xr:uid="{20B416D1-90EB-5648-8200-2E34D825A2C5}"/>
+    <hyperlink ref="C278" r:id="rId1145" xr:uid="{FC84006E-A6F1-DB40-8CDD-24EA45FB26E3}"/>
+    <hyperlink ref="C295" r:id="rId1146" xr:uid="{22AA2B3E-03CD-4644-A254-D3DD9B902061}"/>
+    <hyperlink ref="C348" r:id="rId1147" xr:uid="{C5C45744-358E-354B-8A48-5DEF20837C18}"/>
+    <hyperlink ref="C373" r:id="rId1148" xr:uid="{2B725F57-37C9-DC4D-B7CD-DFC8EA6C4CB2}"/>
+    <hyperlink ref="C374" r:id="rId1149" xr:uid="{E8E103D4-11E5-BD43-A854-EAB62485C70A}"/>
+    <hyperlink ref="C394" r:id="rId1150" xr:uid="{33DAE2E5-04BE-2B45-B710-5FD15C1FAE65}"/>
+    <hyperlink ref="C410" r:id="rId1151" xr:uid="{F24D53DD-306A-6349-908D-993E20F6FB43}"/>
+    <hyperlink ref="C220" r:id="rId1152" xr:uid="{98BCD7BA-C88E-9241-BE04-5BF74F4E5DFC}"/>
+    <hyperlink ref="C337" r:id="rId1153" xr:uid="{8972E69D-022D-7E4A-81B8-42FDD7FFFE84}"/>
+    <hyperlink ref="C358" r:id="rId1154" xr:uid="{210E88F9-4B3E-C248-95B3-05CFBA54771E}"/>
+    <hyperlink ref="C296" r:id="rId1155" xr:uid="{ABCA5F8D-EA8B-854F-85F8-FFECA39AE7A6}"/>
+    <hyperlink ref="C48" r:id="rId1156" xr:uid="{7795C13F-45AC-B945-A8E2-BB8084AF72B5}"/>
+    <hyperlink ref="C59" r:id="rId1157" xr:uid="{EFF85B14-0C11-A343-AEA1-001D992F55A1}"/>
+    <hyperlink ref="C259" r:id="rId1158" xr:uid="{4257EAE4-6A19-344A-9E3D-A0649FD338CA}"/>
+    <hyperlink ref="C223" r:id="rId1159" xr:uid="{95F4902E-DB35-9A4F-8EDE-A28C7668EF2F}"/>
+    <hyperlink ref="C398" r:id="rId1160" xr:uid="{A8BBA9F1-FE00-9341-84E6-7B97DE592378}"/>
+    <hyperlink ref="C31" r:id="rId1161" xr:uid="{E822D03F-E3B0-EC41-91B3-69FD8B511F6D}"/>
+    <hyperlink ref="C338" r:id="rId1162" xr:uid="{FFD0282C-CAD0-D541-8693-23812037641A}"/>
+    <hyperlink ref="C260" r:id="rId1163" xr:uid="{75DB38CB-B248-5D44-A10F-A1D1FCCDE711}"/>
+    <hyperlink ref="C170" r:id="rId1164" xr:uid="{70991738-FE20-7448-9F78-A94F86D96BF1}"/>
+    <hyperlink ref="C33" r:id="rId1165" xr:uid="{28E87377-52B2-6345-982B-314DFD281B55}"/>
+    <hyperlink ref="C225" r:id="rId1166" xr:uid="{88DE9B33-DF47-1A4C-AEA7-EC66595A515F}"/>
+    <hyperlink ref="C282" r:id="rId1167" xr:uid="{940BCBCD-EF7A-6E47-AE38-35BE5FABEC3E}"/>
+    <hyperlink ref="C56" r:id="rId1168" xr:uid="{05B06654-86EC-1C4B-B6D6-02FF2C48E4C5}"/>
+    <hyperlink ref="C426" r:id="rId1169" xr:uid="{B244A1E1-1710-D447-BE58-3CE4E1A87C64}"/>
+    <hyperlink ref="C427" r:id="rId1170" xr:uid="{BA2C8AB8-80AF-AD45-B254-35BE4B5A514B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7168,12 +8849,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="48b6f221-0fe4-4be5-9f88-914bdbe4bbfe" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d0a989db-62a5-4d55-96da-7f783f16222f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7408,20 +9091,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="48b6f221-0fe4-4be5-9f88-914bdbe4bbfe" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d0a989db-62a5-4d55-96da-7f783f16222f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9866C888-CF92-4149-8296-BD8B5A1C26F5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BCE610B-8DC5-40AB-8F4E-325E56185EAB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="48b6f221-0fe4-4be5-9f88-914bdbe4bbfe"/>
+    <ds:schemaRef ds:uri="d0a989db-62a5-4d55-96da-7f783f16222f"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7446,12 +9130,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BCE610B-8DC5-40AB-8F4E-325E56185EAB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9866C888-CF92-4149-8296-BD8B5A1C26F5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="48b6f221-0fe4-4be5-9f88-914bdbe4bbfe"/>
-    <ds:schemaRef ds:uri="d0a989db-62a5-4d55-96da-7f783f16222f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>